--- a/src/main/resources/documents/MA.xlsx
+++ b/src/main/resources/documents/MA.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="31">
   <si>
     <t>Header 1</t>
   </si>
@@ -574,7 +574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I4"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -653,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -668,6 +668,29 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
